--- a/assembly/BluePill - Shield.xlsx
+++ b/assembly/BluePill - Shield.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucliveac-my.sharepoint.com/personal/gal65_uclive_ac_nz/Documents/Masters 2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file\Usersg$\gal65\Home\My Documents\~Masters\masters_STM32\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{1F577A77-EAB0-479D-B735-260792DC7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0DA655-FEF4-4363-8AA2-A9AD9DC690B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD55588-7DBE-4D8D-96F9-6660374C2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37425" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BluePill - Shield" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>Component Count:</t>
   </si>
@@ -223,12 +223,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>LCSC</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
   </si>
   <si>
     <t>505-ADP2301AUJZ-R7CT-ND</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>308-2068-1-ND</t>
@@ -1131,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1141,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1147,7 @@
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1186,37 +1177,31 @@
       <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1227,22 +1212,19 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1259,16 +1241,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1285,16 +1264,13 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1311,16 +1287,13 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1337,13 +1310,10 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1368,9 +1338,6 @@
       <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1394,9 +1361,6 @@
       <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1420,9 +1384,6 @@
       <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1446,9 +1407,6 @@
       <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1467,13 +1425,10 @@
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1493,13 +1448,10 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1523,13 +1475,10 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1549,16 +1498,13 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1575,16 +1521,13 @@
         <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1601,16 +1544,13 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1627,16 +1567,13 @@
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1653,16 +1590,13 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1679,16 +1613,13 @@
         <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1705,13 +1636,10 @@
         <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
